--- a/data/respirometry/deep/final_rates/100_rates.xlsx
+++ b/data/respirometry/deep/final_rates/100_rates.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V2">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z2">
-        <v>-0.09802824886386059</v>
+        <v>-0.08922805527945922</v>
       </c>
       <c r="AB2">
-        <v>-395.5184433067919</v>
+        <v>-360.0119550481403</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="AD2">
-        <v>-395.5184433067919</v>
+        <v>-360.0119550481403</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V3">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z3">
-        <v>-0.1485321025747729</v>
+        <v>-0.1385008538231737</v>
       </c>
       <c r="AB3">
-        <v>-978.4936428916593</v>
+        <v>-912.4101972017729</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="AD3">
-        <v>-978.4936428916593</v>
+        <v>-912.4101972017729</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V4">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z4">
-        <v>-0.114321622829818</v>
+        <v>-0.1082690424864424</v>
       </c>
       <c r="AB4">
-        <v>-732.3532917118272</v>
+        <v>-693.5799868190167</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AD4">
-        <v>-732.3532917118272</v>
+        <v>-693.5799868190167</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V5">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z5">
-        <v>-0.1180363750419523</v>
+        <v>-0.1146727697089838</v>
       </c>
       <c r="AB5">
-        <v>-737.1687356529499</v>
+        <v>-716.16212061874</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="AD5">
-        <v>-737.1687356529499</v>
+        <v>-716.16212061874</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V6">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z6">
-        <v>-0.1136268459944528</v>
+        <v>-0.1076900064089788</v>
       </c>
       <c r="AB6">
-        <v>-709.8247865581017</v>
+        <v>-672.7374604538948</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="AD6">
-        <v>-709.8247865581017</v>
+        <v>-672.7374604538948</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V7">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z7">
-        <v>-0.1590832701006276</v>
+        <v>-0.1509723859433439</v>
       </c>
       <c r="AB7">
-        <v>-793.8122666748544</v>
+        <v>-753.3396303407015</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="AD7">
-        <v>-793.8122666748544</v>
+        <v>-753.3396303407015</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V8">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z8">
-        <v>-0.128995213982048</v>
+        <v>-0.1210819820821884</v>
       </c>
       <c r="AB8">
-        <v>-520.3237443230867</v>
+        <v>-488.404401544952</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="AD8">
-        <v>-520.3237443230867</v>
+        <v>-488.404401544952</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V10">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z10">
-        <v>0.1171222871219215</v>
+        <v>0.1066079832180319</v>
       </c>
       <c r="AB10">
-        <v>472.5579128045761</v>
+        <v>430.1354360112151</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="AD10">
-        <v>472.5579128045761</v>
+        <v>430.1354360112151</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V11">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z11">
-        <v>0.1199568867550126</v>
+        <v>0.1118554908301742</v>
       </c>
       <c r="AB11">
-        <v>790.2470178240791</v>
+        <v>736.8769767784936</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="AD11">
-        <v>790.2470178240791</v>
+        <v>736.8769767784936</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1442,16 +1442,16 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V12">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z12">
-        <v>0.05646979834901859</v>
+        <v>0.05348009278832647</v>
       </c>
       <c r="AB12">
-        <v>361.7499619015222</v>
+        <v>342.5976733455645</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="AD12">
-        <v>361.7499619015222</v>
+        <v>342.5976733455645</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1529,16 +1529,16 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V13">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z13">
-        <v>0.09673305314840439</v>
+        <v>0.09397651463789307</v>
       </c>
       <c r="AB13">
-        <v>604.1237920083064</v>
+        <v>586.9084716644711</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="AD13">
-        <v>604.1237920083064</v>
+        <v>586.9084716644711</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V14">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z14">
-        <v>0.02611221779935317</v>
+        <v>0.02474789190489609</v>
       </c>
       <c r="AB14">
-        <v>163.1225373173643</v>
+        <v>154.5996189141203</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="AD14">
-        <v>163.1225373173643</v>
+        <v>154.5996189141203</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1703,16 +1703,16 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V15">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z15">
-        <v>0.1151685684930816</v>
+        <v>0.1092966819206174</v>
       </c>
       <c r="AB15">
-        <v>574.6815636073014</v>
+        <v>545.3813387200643</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="AD15">
-        <v>574.6815636073014</v>
+        <v>545.3813387200643</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -1790,16 +1790,16 @@
         </is>
       </c>
       <c r="T16">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V16">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z16">
-        <v>0.1615367490726609</v>
+        <v>0.1516272515316182</v>
       </c>
       <c r="AB16">
-        <v>651.5854621936835</v>
+        <v>611.6138484744849</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="AD16">
-        <v>651.5854621936835</v>
+        <v>611.6138484744849</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="T17">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.001011530098724607</v>
+        <v>0.001011268112167051</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
